--- a/src/main/resources/case/test_case_all.xlsx
+++ b/src/main/resources/case/test_case_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例的详细数据" sheetId="1" r:id="rId1"/>
@@ -58,27 +58,8 @@
     <t>{ "mobile_phone": "13888","pwd": "12345678"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[{"actual":"$.code","expected":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},
-{"actual":"$.msg","expected":"无效的手机格式"}]</t>
-    </r>
+    <t>[{"actual":"$.code","expected":2},
+{"actual":"$.msg","expected":"无效的手机格式123"}]</t>
   </si>
   <si>
     <t>reg_case_4</t>
@@ -355,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -515,13 +496,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -535,6 +509,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -593,187 +574,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,16 +900,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,7 +921,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,88 +945,88 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1772,7 +1753,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
@@ -1786,7 +1767,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:6">
+    <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/case/test_case_all.xlsx
+++ b/src/main/resources/case/test_case_all.xlsx
@@ -59,7 +59,7 @@
   </si>
   <si>
     <t>[{"actual":"$.code","expected":2},
-{"actual":"$.msg","expected":"无效的手机格式123"}]</t>
+{"actual":"$.msg","expected":"无效的手机格式"}]</t>
   </si>
   <si>
     <t>reg_case_4</t>
@@ -336,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -381,8 +381,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,29 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -436,38 +488,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,27 +509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -509,13 +516,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -574,6 +574,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,169 +676,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,16 +783,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -808,15 +828,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -839,41 +874,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -888,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,16 +900,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,115 +918,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1438,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/src/main/resources/case/test_case_all.xlsx
+++ b/src/main/resources/case/test_case_all.xlsx
@@ -74,27 +74,8 @@
     <t>{ "mobile_phone": "${phone}","pwd": ""}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[{"actual":"$.code","expected":1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},
+    <t>[{"actual":"$.code","expected":1},
 {"actual":"$.msg","expected":"密码为空"}]</t>
-    </r>
   </si>
   <si>
     <t>reg_case_6</t>
@@ -103,27 +84,8 @@
     <t>{ "mobile_phone": "","pwd": ""}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[{"actual":"$.code","expected":1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},
+    <t>[{"actual":"$.code","expected":1},
 {"actual":"$.msg","expected":"手机号为空"}]</t>
-    </r>
   </si>
   <si>
     <t>reg_case_7</t>
@@ -132,27 +94,8 @@
     <t>{ "mobile_phone": "${phone}","pwd": "12345"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[{"actual":"$.code","expected":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>},
+    <t>[{"actual":"$.code","expected":2},
 {"actual":"$.msg","expected":"密码格式为8到16位"}]</t>
-    </r>
   </si>
   <si>
     <t>login_case_1</t>
@@ -336,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -381,6 +324,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -397,8 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +389,22 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,15 +417,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -463,49 +445,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,6 +517,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,42 +553,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -652,109 +637,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,36 +726,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -828,30 +751,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -874,6 +782,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -888,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,16 +843,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,115 +861,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1439,7 +1382,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
